--- a/Application/advanceyii/backend/web/uploads/January2016RoomSegment.xlsx
+++ b/Application/advanceyii/backend/web/uploads/January2016RoomSegment.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\advanceyii\backend\web\uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eugene\Desktop\roomSegment_sampData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Rack</t>
   </si>
@@ -56,6 +56,9 @@
     <t>Convention/Association</t>
   </si>
   <si>
+    <t>Gov't/NGOs</t>
+  </si>
+  <si>
     <t>Group Tours</t>
   </si>
   <si>
@@ -86,6 +89,21 @@
     <t>id</t>
   </si>
   <si>
+    <t>montyear_id</t>
+  </si>
+  <si>
+    <t>graterns</t>
+  </si>
+  <si>
+    <t>actualrns</t>
+  </si>
+  <si>
+    <t>budgetrns</t>
+  </si>
+  <si>
+    <t>lastyearrns</t>
+  </si>
+  <si>
     <t>growthRateRNS</t>
   </si>
   <si>
@@ -105,9 +123,6 @@
   </si>
   <si>
     <t>monthYear_id</t>
-  </si>
-  <si>
-    <t>Govt/NGOs</t>
   </si>
 </sst>
 </file>
@@ -425,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,345 +470,365 @@
         <v>19</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1482</v>
+      </c>
+      <c r="C2">
+        <v>1100</v>
+      </c>
+      <c r="D2">
+        <v>1072</v>
+      </c>
+      <c r="E2">
+        <v>6095</v>
+      </c>
+      <c r="F2">
+        <v>6400</v>
+      </c>
+      <c r="G2">
+        <v>6349</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>252</v>
+      </c>
+      <c r="C3">
+        <v>200</v>
+      </c>
+      <c r="D3">
+        <v>166</v>
+      </c>
+      <c r="E3">
+        <v>3404</v>
+      </c>
+      <c r="F3">
+        <v>4000</v>
+      </c>
+      <c r="G3">
+        <v>3809</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>179</v>
+      </c>
+      <c r="C4">
+        <v>400</v>
+      </c>
+      <c r="D4">
+        <v>342</v>
+      </c>
+      <c r="E4">
+        <v>3708</v>
+      </c>
+      <c r="F4">
+        <v>3600</v>
+      </c>
+      <c r="G4">
+        <v>3543</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>508</v>
+      </c>
+      <c r="C5">
+        <v>600</v>
+      </c>
+      <c r="D5">
+        <v>1098</v>
+      </c>
+      <c r="E5">
+        <v>4863</v>
+      </c>
+      <c r="F5">
+        <v>3600</v>
+      </c>
+      <c r="G5">
+        <v>3109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>553</v>
+      </c>
+      <c r="C6">
+        <v>550</v>
+      </c>
+      <c r="D6">
+        <v>513</v>
+      </c>
+      <c r="E6">
+        <v>4670</v>
+      </c>
+      <c r="F6">
+        <v>5000</v>
+      </c>
+      <c r="G6">
+        <v>4943</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>216</v>
+      </c>
+      <c r="C7">
+        <v>280</v>
+      </c>
+      <c r="D7">
+        <v>256</v>
+      </c>
+      <c r="E7">
+        <v>3551</v>
+      </c>
+      <c r="F7">
+        <v>3300</v>
+      </c>
+      <c r="G7">
+        <v>3194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>142</v>
+      </c>
+      <c r="C8">
+        <v>300</v>
+      </c>
+      <c r="D8">
+        <v>285</v>
+      </c>
+      <c r="E8">
+        <v>7398</v>
+      </c>
+      <c r="F8">
+        <v>4000</v>
+      </c>
+      <c r="G8">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>2900</v>
+      </c>
+      <c r="G9">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1082</v>
+      </c>
+      <c r="C10">
+        <v>1200</v>
+      </c>
+      <c r="D10">
+        <v>1121</v>
+      </c>
+      <c r="E10">
+        <v>3503</v>
+      </c>
+      <c r="F10">
+        <v>4000</v>
+      </c>
+      <c r="G10">
+        <v>3484</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>24</v>
+      </c>
+      <c r="C11">
+        <v>300</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>5253</v>
+      </c>
+      <c r="F11">
+        <v>4000</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>344</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>4093</v>
+      </c>
+      <c r="F12">
+        <v>4000</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>215</v>
+      </c>
+      <c r="C13">
+        <v>200</v>
+      </c>
+      <c r="D13">
+        <v>188</v>
+      </c>
+      <c r="E13">
+        <v>3369</v>
+      </c>
+      <c r="F13">
+        <v>3100</v>
+      </c>
+      <c r="G13">
+        <v>2949</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>1482</v>
-      </c>
-      <c r="D2">
-        <v>1100</v>
-      </c>
-      <c r="E2">
-        <v>1072</v>
-      </c>
-      <c r="F2">
-        <v>6095</v>
-      </c>
-      <c r="G2">
-        <v>6400</v>
-      </c>
-      <c r="H2">
-        <v>6349</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>252</v>
-      </c>
-      <c r="D3">
-        <v>200</v>
-      </c>
-      <c r="E3">
-        <v>166</v>
-      </c>
-      <c r="F3">
-        <v>3404</v>
-      </c>
-      <c r="G3">
-        <v>4000</v>
-      </c>
-      <c r="H3">
-        <v>3809</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>179</v>
-      </c>
-      <c r="D4">
-        <v>400</v>
-      </c>
-      <c r="E4">
-        <v>342</v>
-      </c>
-      <c r="F4">
-        <v>3708</v>
-      </c>
-      <c r="G4">
-        <v>3600</v>
-      </c>
-      <c r="H4">
-        <v>3543</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>508</v>
-      </c>
-      <c r="D5">
-        <v>600</v>
-      </c>
-      <c r="E5">
-        <v>1098</v>
-      </c>
-      <c r="F5">
-        <v>4863</v>
-      </c>
-      <c r="G5">
-        <v>3600</v>
-      </c>
-      <c r="H5">
-        <v>3109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>553</v>
-      </c>
-      <c r="D6">
-        <v>550</v>
-      </c>
-      <c r="E6">
-        <v>513</v>
-      </c>
-      <c r="F6">
-        <v>4670</v>
-      </c>
-      <c r="G6">
-        <v>5000</v>
-      </c>
-      <c r="H6">
-        <v>4943</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>216</v>
-      </c>
-      <c r="D7">
-        <v>280</v>
-      </c>
-      <c r="E7">
-        <v>256</v>
-      </c>
-      <c r="F7">
-        <v>3551</v>
-      </c>
-      <c r="G7">
-        <v>3300</v>
-      </c>
-      <c r="H7">
-        <v>3194</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>142</v>
-      </c>
-      <c r="D8">
-        <v>300</v>
-      </c>
-      <c r="E8">
-        <v>285</v>
-      </c>
-      <c r="F8">
-        <v>7398</v>
-      </c>
-      <c r="G8">
-        <v>4000</v>
-      </c>
-      <c r="H8">
-        <v>3515</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>4</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>2900</v>
-      </c>
-      <c r="H9">
-        <v>2719</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>1082</v>
-      </c>
-      <c r="D10">
-        <v>1200</v>
-      </c>
-      <c r="E10">
-        <v>1121</v>
-      </c>
-      <c r="F10">
-        <v>3503</v>
-      </c>
-      <c r="G10">
-        <v>4000</v>
-      </c>
-      <c r="H10">
-        <v>3484</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>24</v>
-      </c>
-      <c r="D11">
-        <v>300</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>5253</v>
-      </c>
-      <c r="G11">
-        <v>4000</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12">
-        <v>344</v>
-      </c>
-      <c r="D12">
-        <v>100</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>4093</v>
-      </c>
-      <c r="G12">
-        <v>4000</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13">
-        <v>215</v>
-      </c>
-      <c r="D13">
-        <v>200</v>
-      </c>
-      <c r="E13">
-        <v>188</v>
-      </c>
-      <c r="F13">
-        <v>3369</v>
-      </c>
-      <c r="G13">
-        <v>3100</v>
-      </c>
-      <c r="H13">
-        <v>2949</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>11</v>
+      <c r="B14">
+        <v>60</v>
       </c>
       <c r="C14">
         <v>60</v>
       </c>
       <c r="D14">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="E14">
-        <v>42</v>
+        <v>7158</v>
       </c>
       <c r="F14">
-        <v>7158</v>
+        <v>4900</v>
       </c>
       <c r="G14">
-        <v>4900</v>
-      </c>
-      <c r="H14">
         <v>4751</v>
+      </c>
+    </row>
+    <row r="40" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G40" t="s">
+        <v>20</v>
+      </c>
+      <c r="H40" t="s">
+        <v>21</v>
+      </c>
+      <c r="I40" t="s">
+        <v>22</v>
+      </c>
+      <c r="J40" t="s">
+        <v>23</v>
+      </c>
+      <c r="K40" t="s">
+        <v>24</v>
+      </c>
+      <c r="L40" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
